--- a/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/instructions_evaluation.xlsx
+++ b/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/instructions_evaluation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\labs\BALAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="140" windowWidth="25360" windowHeight="15820"/>
+    <workbookView xWindow="375" yWindow="135" windowWidth="25365" windowHeight="15825"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -891,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,17 +907,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25" customHeight="1">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
